--- a/GroceryApp/src/main/resources/ExcelRead/Read.xlsx
+++ b/GroceryApp/src/main/resources/ExcelRead/Read.xlsx
@@ -5,15 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse\GroceryApp\src\main\resources\ExcelRead\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\GroceryApp\GroceryApp\src\main\resources\ExcelRead\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2135D5A-D82D-4178-B4AC-4A5019CE3444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608BF249-02C5-4D8D-A36E-031C33DB4B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="manageExpense" sheetId="2" r:id="rId2"/>
+    <sheet name="sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,9 +35,6 @@
     <t>ErrorMessageOfverifyTheDeliveryChargeForDerbyState</t>
   </si>
   <si>
-    <t>Expected ResultOfverifyTheDeliveryChargeForDerbyState</t>
-  </si>
-  <si>
     <t>Delivery Charge not expected</t>
   </si>
   <si>
@@ -43,6 +42,9 @@
   </si>
   <si>
     <t>Status is not expected</t>
+  </si>
+  <si>
+    <t>Cash Voucher</t>
   </si>
 </sst>
 </file>
@@ -84,13 +86,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -372,11 +371,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -390,28 +387,60 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86D8515-F01E-4324-86BF-5159BEC05C50}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B0330EC-213C-4EC7-81BA-017BDD619781}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GroceryApp/src/main/resources/ExcelRead/Read.xlsx
+++ b/GroceryApp/src/main/resources/ExcelRead/Read.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\GroceryApp\GroceryApp\src\main\resources\ExcelRead\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608BF249-02C5-4D8D-A36E-031C33DB4B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FBD31A-2996-4C41-B232-0449B48A2217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="manageExpense" sheetId="2" r:id="rId2"/>
-    <sheet name="sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="randomDataGeneration" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Active</t>
   </si>
@@ -45,13 +45,46 @@
   </si>
   <si>
     <t>Cash Voucher</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>UserType</t>
+  </si>
+  <si>
+    <t>Abc</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Asd</t>
+  </si>
+  <si>
+    <t>Qaz</t>
+  </si>
+  <si>
+    <t>asdgf</t>
+  </si>
+  <si>
+    <t>Partner</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +95,11 @@
     <font>
       <sz val="12"/>
       <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -86,11 +124,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,7 +451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86D8515-F01E-4324-86BF-5159BEC05C50}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -433,14 +472,60 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B0330EC-213C-4EC7-81BA-017BDD619781}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GroceryApp/src/main/resources/ExcelRead/Read.xlsx
+++ b/GroceryApp/src/main/resources/ExcelRead/Read.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\GroceryApp\GroceryApp\src\main\resources\ExcelRead\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FBD31A-2996-4C41-B232-0449B48A2217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0181D49A-0EFB-4CE7-8247-134B6711E9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="manageExpense" sheetId="2" r:id="rId2"/>
-    <sheet name="randomDataGeneration" sheetId="3" r:id="rId3"/>
+    <sheet name="AdminUserRandomData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,22 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>ErrorMessageOfverifyTheDeliveryChargeForDerbyState</t>
-  </si>
-  <si>
-    <t>Delivery Charge not expected</t>
-  </si>
-  <si>
-    <t>ErrorMessageOfverifyTheStatusActiveForSearchListUsers</t>
-  </si>
-  <si>
-    <t>Status is not expected</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Cash Voucher</t>
   </si>
@@ -56,28 +41,37 @@
     <t>UserType</t>
   </si>
   <si>
-    <t>Abc</t>
-  </si>
-  <si>
     <t>asdf</t>
   </si>
   <si>
-    <t>Staff</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>Asd</t>
-  </si>
-  <si>
-    <t>Qaz</t>
-  </si>
-  <si>
     <t>asdgf</t>
   </si>
   <si>
-    <t>Partner</t>
+    <t>addUserAsAdmin</t>
+  </si>
+  <si>
+    <t>Manav</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>verifyTheAddedAdminUser</t>
+  </si>
+  <si>
+    <t>deleteAdminUser</t>
+  </si>
+  <si>
+    <t>Archidh</t>
+  </si>
+  <si>
+    <t>Madhav</t>
+  </si>
+  <si>
+    <t>Soumya</t>
+  </si>
+  <si>
+    <t>staff</t>
   </si>
 </sst>
 </file>
@@ -93,13 +87,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF2A00FF"/>
+      <sz val="9"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -126,10 +120,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,35 +404,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -462,7 +467,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -475,53 +480,58 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
